--- a/tutorials/review_points_WaiLinOo .xlsx
+++ b/tutorials/review_points_WaiLinOo .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>№</t>
   </si>
@@ -114,13 +114,25 @@
     <t>1) Use an indent of 4 spaces for *.php</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Tutorial_05 index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) is ok but test with more data in sample files </t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>12/20/2021 12:19PM</t>
+  </si>
+  <si>
     <t>エラータイプ</t>
   </si>
   <si>
     <t>Design</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>Request</t>
@@ -149,9 +161,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
@@ -169,6 +181,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -183,31 +225,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,9 +249,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,6 +295,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -268,38 +310,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,7 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,19 +358,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,145 +514,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,6 +666,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -679,6 +717,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -695,11 +748,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,192 +763,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1986,8 +1998,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="J3" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="J4" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6"/>
@@ -2247,29 +2259,51 @@
       <c r="X5" s="28"/>
     </row>
     <row r="6" ht="135" customHeight="1" spans="1:24">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13"/>
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>44550</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>30</v>
+      </c>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="24"/>
+      <c r="O6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
       <c r="S6" s="29"/>
       <c r="T6" s="29"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="V6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="W6" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="X6" s="28"/>
     </row>
     <row r="7" ht="198.6" customHeight="1" spans="1:24">
@@ -2372,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -2386,10 +2420,10 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
@@ -2400,10 +2434,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -2413,13 +2447,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2428,7 +2462,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2437,7 +2471,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2446,7 +2480,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/tutorials/review_points_WaiLinOo .xlsx
+++ b/tutorials/review_points_WaiLinOo .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>№</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t xml:space="preserve">1) is ok but test with more data in sample files </t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>12/20/2021 12:19PM</t>
@@ -161,10 +158,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -181,20 +178,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -210,16 +213,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,33 +245,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -295,13 +283,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -317,19 +298,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -358,169 +355,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,11 +665,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -717,21 +727,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -749,17 +744,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,148 +765,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1998,8 +1995,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6"/>
@@ -2291,7 +2288,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="29"/>
       <c r="R6" s="29"/>
@@ -2299,7 +2296,7 @@
       <c r="T6" s="29"/>
       <c r="U6" s="30"/>
       <c r="V6" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W6" s="28" t="s">
         <v>19</v>
@@ -2406,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -2420,7 +2417,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2434,10 +2431,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -2447,13 +2444,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2462,7 +2459,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2471,7 +2468,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2480,7 +2477,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/tutorials/review_points_WaiLinOo .xlsx
+++ b/tutorials/review_points_WaiLinOo .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>№</t>
   </si>
@@ -126,6 +126,24 @@
     <t>12/20/2021 12:19PM</t>
   </si>
   <si>
+    <t>Wrong Documents</t>
+  </si>
+  <si>
+    <t>Turorial_06 index.php</t>
+  </si>
+  <si>
+    <t>1) Create folder under tutorial_06 (now in _actions folder)
+2) Not upload image when folder name is null
+3) Not create folder when image file is null
+4) Please return error message for input file is not image type</t>
+  </si>
+  <si>
+    <t>Done error</t>
+  </si>
+  <si>
+    <t>12/21/2021 10:37AM</t>
+  </si>
+  <si>
     <t>エラータイプ</t>
   </si>
   <si>
@@ -148,9 +166,6 @@
   </si>
   <si>
     <t>Expression</t>
-  </si>
-  <si>
-    <t>Wrong Documents</t>
   </si>
 </sst>
 </file>
@@ -158,10 +173,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -178,36 +193,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,9 +207,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +223,22 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -283,16 +291,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -313,20 +342,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -355,13 +370,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +478,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,139 +526,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,45 +678,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -750,6 +726,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -765,148 +780,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1995,8 +2010,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6"/>
@@ -2304,29 +2319,51 @@
       <c r="X6" s="28"/>
     </row>
     <row r="7" ht="198.6" customHeight="1" spans="1:24">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>44551</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="17"/>
+      <c r="I7" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="18"/>
       <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="21"/>
+      <c r="O7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>36</v>
+      </c>
       <c r="Q7" s="21"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="V7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>19</v>
+      </c>
       <c r="X7" s="28"/>
     </row>
   </sheetData>
@@ -2403,7 +2440,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -2417,7 +2454,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2431,10 +2468,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -2444,13 +2481,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2459,7 +2496,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2468,7 +2505,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2477,7 +2514,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>

--- a/tutorials/review_points_WaiLinOo .xlsx
+++ b/tutorials/review_points_WaiLinOo .xlsx
@@ -135,7 +135,7 @@
     <t>1) Create folder under tutorial_06 (now in _actions folder)
 2) Not upload image when folder name is null
 3) Not create folder when image file is null
-4) Please return error message for input file is not image type</t>
+4) Please return error message for input file is not image type...</t>
   </si>
   <si>
     <t>Done error</t>
@@ -174,9 +174,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -192,8 +192,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,7 +209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,13 +223,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -229,16 +230,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +247,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,14 +275,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -291,22 +291,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,6 +321,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -335,9 +336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,13 +370,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,151 +508,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,6 +678,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -741,15 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -767,11 +769,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,148 +780,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2010,8 +2010,8 @@
   <sheetPr/>
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="I6" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6"/>

--- a/tutorials/review_points_WaiLinOo .xlsx
+++ b/tutorials/review_points_WaiLinOo .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="48">
   <si>
     <t>№</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>12/21/2021 10:37AM</t>
+  </si>
+  <si>
+    <t>Turorial_07 index.php</t>
+  </si>
+  <si>
+    <t>12/22/2021 10:36AM</t>
   </si>
   <si>
     <t>エラータイプ</t>
@@ -173,10 +179,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -192,22 +198,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -222,23 +219,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,14 +246,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -275,14 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -292,15 +275,37 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,13 +326,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -336,8 +334,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,67 +376,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,37 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,55 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,17 +684,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -752,6 +747,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -769,9 +773,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,152 +786,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,6 +980,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1001,6 +1016,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,6 +1039,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1582,420 +1606,420 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="31"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="37"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="43"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="44"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="38"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="44"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="38"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="44"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="38"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="38"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="38"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="38"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="38"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="38"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="44"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="38"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
+      <c r="N11" s="44"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="38"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="44"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="38"/>
+      <c r="A13" s="39"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="44"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="38"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="44"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="38"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="44"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="38"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="44"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="38"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="40"/>
+      <c r="N17" s="44"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="38"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="44"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="38"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="44"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="38"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="44"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="38"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="38"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="38"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="38"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="38"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="39"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2008,13 +2032,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="I6" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="92" zoomScaleNormal="100" topLeftCell="H6" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="5.44166666666667" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.1083333333333" style="3" customWidth="1"/>
@@ -2062,21 +2086,21 @@
       <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="P1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="27" t="s">
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2101,30 +2125,30 @@
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20" t="s">
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="28" t="s">
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="W2" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="28"/>
+      <c r="X2" s="33"/>
     </row>
     <row r="3" ht="192" customHeight="1" spans="1:24">
       <c r="A3" s="9">
@@ -2147,32 +2171,32 @@
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="20" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="28" t="s">
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="W3" s="28" t="s">
+      <c r="W3" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="X3" s="28"/>
+      <c r="X3" s="33"/>
     </row>
     <row r="4" ht="135" customHeight="1" spans="1:24">
       <c r="A4" s="9">
@@ -2195,32 +2219,32 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="20" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="24" t="s">
+      <c r="P4" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="28" t="s">
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="X4" s="28"/>
+      <c r="X4" s="33"/>
     </row>
     <row r="5" ht="135" customHeight="1" spans="1:24">
       <c r="A5" s="9">
@@ -2243,32 +2267,32 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="20" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="28" t="s">
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="W5" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="28"/>
+      <c r="X5" s="33"/>
     </row>
     <row r="6" ht="135" customHeight="1" spans="1:24">
       <c r="A6" s="9">
@@ -2299,24 +2323,24 @@
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="28" t="s">
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="28" t="s">
+      <c r="W6" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="28"/>
+      <c r="X6" s="33"/>
     </row>
     <row r="7" ht="198.6" customHeight="1" spans="1:24">
       <c r="A7" s="9">
@@ -2339,32 +2363,78 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20" t="s">
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="28" t="s">
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="W7" s="28" t="s">
+      <c r="W7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="28"/>
+      <c r="X7" s="33"/>
+    </row>
+    <row r="8" ht="198.6" customHeight="1" spans="1:24">
+      <c r="A8" s="16">
+        <v>7</v>
+      </c>
+      <c r="B8" s="17">
+        <v>44552</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2391,19 +2461,19 @@
     <mergeCell ref="P7:U7"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C2:C7">
       <formula1>Ref.!$A$2:$A$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O8 O2:O7">
       <formula1>Ref.!$D$2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8 D2:D7">
       <formula1>Ref.!$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8 E2:E7">
       <formula1>Ref.!$C$2:$C$7</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W8 W2:W7">
       <formula1>Ref.!$E$2:$E$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -2440,7 +2510,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>7</v>
@@ -2454,7 +2524,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>29</v>
@@ -2468,10 +2538,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>14</v>
@@ -2481,13 +2551,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2496,7 +2566,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2505,7 +2575,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
